--- a/biology/Zoologie/Musée_colombophile_militaire/Musée_colombophile_militaire.xlsx
+++ b/biology/Zoologie/Musée_colombophile_militaire/Musée_colombophile_militaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mus%C3%A9e_colombophile_militaire</t>
+          <t>Musée_colombophile_militaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le musée de la colombophilie militaire est un musée français situé dans la forteresse du Mont-Valérien à Suresnes. Créé en 1981, il est géré par des personnels militaires du 8e régiment de transmissions.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mus%C3%A9e_colombophile_militaire</t>
+          <t>Musée_colombophile_militaire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il présente, sous une forme pédagogique, l'histoire de la colombophilie depuis l'Antiquité à nos jours en accordant une large place aux activités militaires des pigeons voyageurs au cours des derniers conflits, ainsi qu'au sport colombophile. Y figure notamment la dépouille empaillée du pigeon « Vaillant », décoré pendant la Première Guerre mondiale[1],[2],[3].
-Il est situé au même endroit que le colombier militaire national, le dernier d'Europe encore en activité[2].
-Il est ouvert sur rendez-vous aux groupes les mardi, mercredi et jeudi, et aux visites individuelles lors des Journées européennes du patrimoine[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il présente, sous une forme pédagogique, l'histoire de la colombophilie depuis l'Antiquité à nos jours en accordant une large place aux activités militaires des pigeons voyageurs au cours des derniers conflits, ainsi qu'au sport colombophile. Y figure notamment la dépouille empaillée du pigeon « Vaillant », décoré pendant la Première Guerre mondiale.
+Il est situé au même endroit que le colombier militaire national, le dernier d'Europe encore en activité.
+Il est ouvert sur rendez-vous aux groupes les mardi, mercredi et jeudi, et aux visites individuelles lors des Journées européennes du patrimoine.
 </t>
         </is>
       </c>
